--- a/outputs/tf/VGG19.xlsx
+++ b/outputs/tf/VGG19.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="details" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Summary" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="details" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -60,18 +60,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -96,75 +96,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -460,10 +392,10 @@
   <dimension ref="A1:X27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="C2" xSplit="2" ySplit="1"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection activeCell="A1" pane="bottomRight" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -593,7 +525,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>input_1</t>
+          <t>input_4</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -683,7 +615,7 @@
         <v>1792</v>
       </c>
       <c r="U3" t="n">
-        <v>86704128</v>
+        <v>86704192</v>
       </c>
     </row>
     <row r="4">
@@ -743,7 +675,7 @@
         <v>36928</v>
       </c>
       <c r="U4" t="n">
-        <v>1849688064</v>
+        <v>1849688128</v>
       </c>
     </row>
     <row r="5">
@@ -860,7 +792,7 @@
         <v>73856</v>
       </c>
       <c r="U6" t="n">
-        <v>924844032</v>
+        <v>924844160</v>
       </c>
     </row>
     <row r="7">
@@ -920,7 +852,7 @@
         <v>147584</v>
       </c>
       <c r="U7" t="n">
-        <v>1849688064</v>
+        <v>1849688192</v>
       </c>
     </row>
     <row r="8">
@@ -1037,7 +969,7 @@
         <v>295168</v>
       </c>
       <c r="U9" t="n">
-        <v>924844032</v>
+        <v>924844288</v>
       </c>
     </row>
     <row r="10">
@@ -1097,7 +1029,7 @@
         <v>590080</v>
       </c>
       <c r="U10" t="n">
-        <v>1849688064</v>
+        <v>1849688320</v>
       </c>
     </row>
     <row r="11">
@@ -1157,7 +1089,7 @@
         <v>590080</v>
       </c>
       <c r="U11" t="n">
-        <v>1849688064</v>
+        <v>1849688320</v>
       </c>
     </row>
     <row r="12">
@@ -1217,7 +1149,7 @@
         <v>590080</v>
       </c>
       <c r="U12" t="n">
-        <v>1849688064</v>
+        <v>1849688320</v>
       </c>
     </row>
     <row r="13">
@@ -1334,7 +1266,7 @@
         <v>1180160</v>
       </c>
       <c r="U14" t="n">
-        <v>924844032</v>
+        <v>924844544</v>
       </c>
     </row>
     <row r="15">
@@ -1394,7 +1326,7 @@
         <v>2359808</v>
       </c>
       <c r="U15" t="n">
-        <v>1849688064</v>
+        <v>1849688576</v>
       </c>
     </row>
     <row r="16">
@@ -1454,7 +1386,7 @@
         <v>2359808</v>
       </c>
       <c r="U16" t="n">
-        <v>1849688064</v>
+        <v>1849688576</v>
       </c>
     </row>
     <row r="17">
@@ -1514,7 +1446,7 @@
         <v>2359808</v>
       </c>
       <c r="U17" t="n">
-        <v>1849688064</v>
+        <v>1849688576</v>
       </c>
     </row>
     <row r="18">
@@ -1631,7 +1563,7 @@
         <v>2359808</v>
       </c>
       <c r="U19" t="n">
-        <v>462422016</v>
+        <v>462422528</v>
       </c>
     </row>
     <row r="20">
@@ -1691,7 +1623,7 @@
         <v>2359808</v>
       </c>
       <c r="U20" t="n">
-        <v>462422016</v>
+        <v>462422528</v>
       </c>
     </row>
     <row r="21">
@@ -1751,7 +1683,7 @@
         <v>2359808</v>
       </c>
       <c r="U21" t="n">
-        <v>462422016</v>
+        <v>462422528</v>
       </c>
     </row>
     <row r="22">
@@ -1811,7 +1743,7 @@
         <v>2359808</v>
       </c>
       <c r="U22" t="n">
-        <v>462422016</v>
+        <v>462422528</v>
       </c>
     </row>
     <row r="23">
@@ -2002,21 +1934,21 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="S1:S27">
-    <cfRule dxfId="0" operator="equal" priority="1" stopIfTrue="1" type="cellIs">
+    <cfRule type="cellIs" priority="1" operator="equal" dxfId="0" stopIfTrue="1">
       <formula>3211264</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1:T27">
-    <cfRule dxfId="1" operator="equal" priority="2" stopIfTrue="1" type="cellIs">
-      <formula>102764544.0</formula>
+    <cfRule type="cellIs" priority="2" operator="equal" dxfId="1" stopIfTrue="1">
+      <formula>102764544</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U1:U27">
-    <cfRule dxfId="2" operator="equal" priority="3" stopIfTrue="1" type="cellIs">
-      <formula>1849688064.0</formula>
+    <cfRule type="cellIs" priority="3" operator="equal" dxfId="2" stopIfTrue="1">
+      <formula>1849688576</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -2034,7 +1966,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="25"/>
+    <col width="25" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2071,10 +2003,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.632071656</v>
+        <v>19.63207716</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>